--- a/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
+++ b/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P103625.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103625.txt</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P103626.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103626.txt</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P103627.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103627.txt</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P103628.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103628.txt</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P103629.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103629.txt</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P103630.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103630.txt</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P103631.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103631.txt</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P103632.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103632.txt</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P103633.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103633.txt</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P103634.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103634.txt</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P103635.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103635.txt</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P103636.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103636.txt</t>
         </is>
       </c>
     </row>

--- a/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
+++ b/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103625.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103625.txt</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103626.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103626.txt</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103627.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103627.txt</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103628.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103628.txt</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103629.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103629.txt</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103630.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103630.txt</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103631.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103631.txt</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103632.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103632.txt</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103633.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103633.txt</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103634.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103634.txt</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103635.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103635.txt</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103636.txt</t>
+          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103636.txt</t>
         </is>
       </c>
     </row>

--- a/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
+++ b/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103625.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103625.txt</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103626.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103626.txt</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103627.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103627.txt</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103628.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103628.txt</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103629.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103629.txt</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103630.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103630.txt</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103631.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103631.txt</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103632.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103632.txt</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103633.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103633.txt</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103634.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103634.txt</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103635.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103635.txt</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103636.txt</t>
+          <t>D:\chemreg\assayLoader\tools\doseResponse\preparedHaronyFiles\P103636.txt</t>
         </is>
       </c>
     </row>

--- a/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
+++ b/tools/doseResponse/preparedHaronyFiles/prepared_plate_to_file.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103625.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103625.txt</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103626.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103626.txt</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103627.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103627.txt</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103628.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103628.txt</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103629.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103629.txt</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103630.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103630.txt</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103631.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103631.txt</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103632.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103632.txt</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103633.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103633.txt</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103634.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103634.txt</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103635.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103635.txt</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/home/dahlbma/Documents/GitHub/assayLoader/tools/doseResponse/preparedHaronyFiles/P103636.txt</t>
+          <t>C:\Users\mats.dahlberg\Documents\GitHub\assayLoader\tools\doseResponse\preparedHaronyFiles\P103636.txt</t>
         </is>
       </c>
     </row>
